--- a/data/Subset1_WithDialogActs/Math NL3 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math NL3 transcript.xlsx_with_dialog_acts.xlsx
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3873,12 +3873,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3999,12 +3999,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4587,12 +4587,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4843,12 +4843,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5183,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5729,12 +5729,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6069,12 +6069,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6615,12 +6615,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6825,12 +6825,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7287,12 +7287,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7749,12 +7749,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8631,12 +8631,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8799,12 +8799,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9181,12 +9181,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9979,12 +9979,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10189,12 +10189,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10231,12 +10231,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10357,12 +10357,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10525,12 +10525,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10609,12 +10609,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10777,12 +10777,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11365,12 +11365,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11659,12 +11659,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11827,12 +11827,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12541,12 +12541,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12965,12 +12965,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13427,12 +13427,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13641,12 +13641,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14237,12 +14237,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14279,12 +14279,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14321,12 +14321,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14405,12 +14405,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14531,12 +14531,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14573,12 +14573,12 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14741,12 +14741,12 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15287,12 +15287,12 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15791,12 +15791,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16215,12 +16215,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16551,12 +16551,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16803,12 +16803,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16929,12 +16929,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17013,12 +17013,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17349,12 +17349,12 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17391,12 +17391,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17475,12 +17475,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17517,12 +17517,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17937,12 +17937,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19369,12 +19369,12 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19453,12 +19453,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19663,12 +19663,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19957,12 +19957,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20125,12 +20125,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20335,12 +20335,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20965,12 +20965,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21049,12 +21049,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21301,12 +21301,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21427,12 +21427,12 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21889,12 +21889,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22393,12 +22393,12 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23447,12 +23447,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23657,12 +23657,12 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24329,12 +24329,12 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24791,12 +24791,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25253,12 +25253,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25421,12 +25421,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25463,12 +25463,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25933,12 +25933,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26143,12 +26143,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26227,12 +26227,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26437,12 +26437,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26479,12 +26479,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26651,12 +26651,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26735,12 +26735,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26991,12 +26991,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27243,12 +27243,12 @@
       <c r="H637" t="inlineStr"/>
       <c r="I637" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27373,12 +27373,12 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27415,12 +27415,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27671,12 +27671,12 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27965,12 +27965,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28053,12 +28053,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28137,12 +28137,12 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28737,12 +28737,12 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29031,12 +29031,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29455,12 +29455,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30631,12 +30631,12 @@
       <c r="H717" t="inlineStr"/>
       <c r="I717" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30799,12 +30799,12 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31219,12 +31219,12 @@
       <c r="H731" t="inlineStr"/>
       <c r="I731" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31387,12 +31387,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31723,12 +31723,12 @@
       <c r="H743" t="inlineStr"/>
       <c r="I743" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32533,12 +32533,12 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32659,12 +32659,12 @@
       <c r="H765" t="inlineStr"/>
       <c r="I765" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33121,12 +33121,12 @@
       <c r="H776" t="inlineStr"/>
       <c r="I776" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33373,12 +33373,12 @@
       <c r="H782" t="inlineStr"/>
       <c r="I782" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33625,12 +33625,12 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33667,12 +33667,12 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -34175,12 +34175,12 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35351,12 +35351,12 @@
       <c r="H829" t="inlineStr"/>
       <c r="I829" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35519,12 +35519,12 @@
       <c r="H833" t="inlineStr"/>
       <c r="I833" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35645,12 +35645,12 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35687,12 +35687,12 @@
       <c r="H837" t="inlineStr"/>
       <c r="I837" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36611,12 +36611,12 @@
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -37111,12 +37111,12 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37741,12 +37741,12 @@
       <c r="H886" t="inlineStr"/>
       <c r="I886" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39379,12 +39379,12 @@
       <c r="H925" t="inlineStr"/>
       <c r="I925" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40303,12 +40303,12 @@
       <c r="H947" t="inlineStr"/>
       <c r="I947" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40387,12 +40387,12 @@
       <c r="H949" t="inlineStr"/>
       <c r="I949" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40429,12 +40429,12 @@
       <c r="H950" t="inlineStr"/>
       <c r="I950" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40723,12 +40723,12 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40849,12 +40849,12 @@
       <c r="H960" t="inlineStr"/>
       <c r="I960" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41517,12 +41517,12 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41685,12 +41685,12 @@
       <c r="H980" t="inlineStr"/>
       <c r="I980" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41895,12 +41895,12 @@
       <c r="H985" t="inlineStr"/>
       <c r="I985" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J985" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -42021,12 +42021,12 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42273,12 +42273,12 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42315,12 +42315,12 @@
       <c r="H995" t="inlineStr"/>
       <c r="I995" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42403,12 +42403,12 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -42655,12 +42655,12 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -42739,12 +42739,12 @@
       <c r="H1005" t="inlineStr"/>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -43327,12 +43327,12 @@
       <c r="H1019" t="inlineStr"/>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44763,12 +44763,12 @@
       <c r="H1053" t="inlineStr"/>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -44847,12 +44847,12 @@
       <c r="H1055" t="inlineStr"/>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1055" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44973,12 +44973,12 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45225,12 +45225,12 @@
       <c r="H1064" t="inlineStr"/>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -46149,12 +46149,12 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46191,12 +46191,12 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -46443,12 +46443,12 @@
       <c r="H1093" t="inlineStr"/>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1093" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46947,12 +46947,12 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -47157,12 +47157,12 @@
       <c r="H1110" t="inlineStr"/>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -47493,12 +47493,12 @@
       <c r="H1118" t="inlineStr"/>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1118" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -47829,12 +47829,12 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -48123,12 +48123,12 @@
       <c r="H1133" t="inlineStr"/>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1133" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48249,12 +48249,12 @@
       <c r="H1136" t="inlineStr"/>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -48543,12 +48543,12 @@
       <c r="H1143" t="inlineStr"/>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -48669,12 +48669,12 @@
       <c r="H1146" t="inlineStr"/>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1146" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49131,12 +49131,12 @@
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -49173,12 +49173,12 @@
       <c r="H1158" t="inlineStr"/>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -49677,12 +49677,12 @@
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1170" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -49803,12 +49803,12 @@
       <c r="H1173" t="inlineStr"/>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1173" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
